--- a/input/Inverse2_Radiation.xlsx
+++ b/input/Inverse2_Radiation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03787958065519235</v>
+        <v>0.06980006979693865</v>
       </c>
       <c r="C2" t="n">
-        <v>95.08117513593712</v>
+        <v>94.19484456346231</v>
       </c>
       <c r="D2" t="n">
-        <v>7.410070768923822</v>
+        <v>9.548713539599117</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1.363636363636364</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05602137545954169</v>
+        <v>0.055947019143138</v>
       </c>
       <c r="C3" t="n">
-        <v>55.72768574344649</v>
+        <v>53.77434063864826</v>
       </c>
       <c r="D3" t="n">
-        <v>3.668896187538807</v>
+        <v>7.87796277773428</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1.727272727272727</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06240755386664384</v>
+        <v>0.05905563088508203</v>
       </c>
       <c r="C4" t="n">
-        <v>31.08718515879549</v>
+        <v>37.03478084743531</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78074568188025</v>
+        <v>3.851574749998576</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2.090909090909091</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06127694777295792</v>
+        <v>0.05306189368001298</v>
       </c>
       <c r="C5" t="n">
-        <v>22.26596012287366</v>
+        <v>22.1694707001653</v>
       </c>
       <c r="D5" t="n">
-        <v>1.626850440431667</v>
+        <v>2.859374786431</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2.454545454545455</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03843488789354176</v>
+        <v>0.06989414375058972</v>
       </c>
       <c r="C6" t="n">
-        <v>14.88109019241402</v>
+        <v>15.65405413311668</v>
       </c>
       <c r="D6" t="n">
-        <v>1.562371274250762</v>
+        <v>1.886950878413403</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.818181818181818</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07246845036042542</v>
+        <v>0.0432446907781123</v>
       </c>
       <c r="C7" t="n">
-        <v>12.65468722826044</v>
+        <v>12.33067512306539</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0168454888331</v>
+        <v>1.075724056044919</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>3.181818181818182</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06960867170104876</v>
+        <v>0.04555984643783421</v>
       </c>
       <c r="C8" t="n">
-        <v>9.536325234247293</v>
+        <v>10.06491400444265</v>
       </c>
       <c r="D8" t="n">
-        <v>1.371659796412968</v>
+        <v>1.008604408737339</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>3.545454545454545</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03703033069890756</v>
+        <v>0.07148489812788107</v>
       </c>
       <c r="C9" t="n">
-        <v>7.934705215250681</v>
+        <v>7.81632186327964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9048469773517138</v>
+        <v>0.8141481613972915</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>3.909090909090909</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03635006164243028</v>
+        <v>0.05900969317750723</v>
       </c>
       <c r="C10" t="n">
-        <v>6.334227446333732</v>
+        <v>6.80837440574668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.721996770221208</v>
+        <v>0.815493858845263</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>4.272727272727273</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06972716040799276</v>
+        <v>0.03079368780602751</v>
       </c>
       <c r="C11" t="n">
-        <v>5.560156745643551</v>
+        <v>5.725781214687653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4224852345132011</v>
+        <v>0.3681758332542525</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>4.636363636363637</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03399600929764992</v>
+        <v>0.02777814510892506</v>
       </c>
       <c r="C12" t="n">
-        <v>4.518445593704949</v>
+        <v>4.231376724044816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5124340351149032</v>
+        <v>0.5672285566331765</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06310837565613875</v>
+        <v>0.06962246288800464</v>
       </c>
       <c r="C13" t="n">
-        <v>4.221804698241178</v>
+        <v>4.106750383412441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2149513095041208</v>
+        <v>0.5881245397233539</v>
       </c>
     </row>
   </sheetData>
